--- a/biology/Botanique/Protéranthe/Protéranthe.xlsx
+++ b/biology/Botanique/Protéranthe/Protéranthe.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Prot%C3%A9ranthe</t>
+          <t>Protéranthe</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Une plante protéranthe est une plante dont les fleurs apparaissent avant les feuilles. 
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Prot%C3%A9ranthe</t>
+          <t>Protéranthe</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">L'adjectif protéranthe vient du grec ancien proteros (πρότερος / proteros) qui signifie premier et de anthos (ἄνθος / ánthos ), qui veut dire fleur.
 </t>
@@ -524,7 +538,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Prot%C3%A9ranthe</t>
+          <t>Protéranthe</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -542,10 +556,12 @@
           <t>Rareté relative</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Les plantes protéranthes sont relativement rares dans la nature mais paradoxalement très visibles. En effet, comme le note le botaniste Henri Coupin : 
-« Généralement, les fleurs apparaissent après les feuilles, ou plutôt pendant la période de plus grande vigueur de celles-ci. Les exceptions sont assez rares; mais, comme elles sont relatives à des espèces vulgaires, elles paraissent beaucoup plus fréquentes qu'elles ne le sont en réalité[1]. »</t>
+« Généralement, les fleurs apparaissent après les feuilles, ou plutôt pendant la période de plus grande vigueur de celles-ci. Les exceptions sont assez rares; mais, comme elles sont relatives à des espèces vulgaires, elles paraissent beaucoup plus fréquentes qu'elles ne le sont en réalité. »</t>
         </is>
       </c>
     </row>
@@ -555,7 +571,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Prot%C3%A9ranthe</t>
+          <t>Protéranthe</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -573,9 +589,11 @@
           <t>Exemples</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le pêcher, l'orme, le tussilage, certaines azalées, le cognassier du Japon[2] et l'arbre de Judée sont des plantes protéranthes.
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le pêcher, l'orme, le tussilage, certaines azalées, le cognassier du Japon et l'arbre de Judée sont des plantes protéranthes.
 </t>
         </is>
       </c>
